--- a/data/total.xlsx
+++ b/data/total.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6513d65d2f04412b/Documentos/github/doc/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE4D6BC5-EF21-4EB6-B9E7-BF49681B9FF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{41A26B21-F101-4989-8B95-6377703533BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CD200CBA-1037-4E3A-87D4-84FDBBDFC5CD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C59E319B-C849-4B16-963C-6E9D17B4A6C7}"/>
   </bookViews>
   <sheets>
     <sheet name="total" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="120">
   <si>
     <t>V1</t>
   </si>
@@ -56,6 +56,9 @@
     <t>Anthus lutescens</t>
   </si>
   <si>
+    <t>Antilophia galeata</t>
+  </si>
+  <si>
     <t>Automolus leucophthalmus</t>
   </si>
   <si>
@@ -167,6 +170,9 @@
     <t>Leptotila verreauxi</t>
   </si>
   <si>
+    <t>Lurocalis semitorquatus</t>
+  </si>
+  <si>
     <t>Megarynchus pitangua</t>
   </si>
   <si>
@@ -191,6 +197,9 @@
     <t>Myiodynastes maculatus</t>
   </si>
   <si>
+    <t>Myiopagis caniceps</t>
+  </si>
+  <si>
     <t>Myiophobus fasciatus</t>
   </si>
   <si>
@@ -239,6 +248,9 @@
     <t>Rupornis magnirostris</t>
   </si>
   <si>
+    <t>Saltator fuliginosus</t>
+  </si>
+  <si>
     <t>Setophaga pitiayumi</t>
   </si>
   <si>
@@ -360,6 +372,30 @@
   </si>
   <si>
     <t>Turdus albicollis</t>
+  </si>
+  <si>
+    <t>Phaeomyias murina</t>
+  </si>
+  <si>
+    <t>Hemitriccus nidipendulus</t>
+  </si>
+  <si>
+    <t>Nothura maculosa</t>
+  </si>
+  <si>
+    <t>Heliomaster squamosus</t>
+  </si>
+  <si>
+    <t>Poecilotriccus plumbeiceps</t>
+  </si>
+  <si>
+    <t>Hylophilus amaurocephalus</t>
+  </si>
+  <si>
+    <t>Leptodon cayanensis</t>
+  </si>
+  <si>
+    <t>Urubitinga urubitinga</t>
   </si>
 </sst>
 </file>
@@ -713,11 +749,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{947BB161-0D5C-43F5-9B67-1F7EA710508B}">
-  <dimension ref="A1:B108"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91312920-0D5F-4E87-8A9C-7921C8041FAE}">
+  <dimension ref="A1:B120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R31" sqref="R31"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -735,7 +771,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -751,7 +787,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -759,7 +795,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -775,7 +811,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -783,7 +819,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>41</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -791,7 +827,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -799,7 +835,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>27</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -807,7 +843,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>8</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -815,7 +851,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -823,7 +859,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -831,7 +867,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>4</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -839,7 +875,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -847,7 +883,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -855,7 +891,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -863,7 +899,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -871,7 +907,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -879,7 +915,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -887,7 +923,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -895,7 +931,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>2</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -903,7 +939,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -911,7 +947,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -919,7 +955,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>27</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -927,7 +963,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -935,7 +971,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -943,7 +979,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -951,7 +987,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -959,7 +995,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -967,7 +1003,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -975,7 +1011,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>9</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -983,7 +1019,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -991,7 +1027,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -999,7 +1035,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -1007,7 +1043,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>21</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -1015,7 +1051,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>1</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -1023,7 +1059,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>26</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -1031,7 +1067,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>2</v>
+        <v>36</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -1039,7 +1075,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -1047,7 +1083,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -1055,7 +1091,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -1063,7 +1099,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -1071,7 +1107,7 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>18</v>
+        <v>32</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -1079,7 +1115,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -1087,7 +1123,7 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -1095,7 +1131,7 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -1103,7 +1139,7 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -1111,7 +1147,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>30</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -1119,7 +1155,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -1127,7 +1163,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>23</v>
+        <v>40</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -1135,7 +1171,7 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -1143,7 +1179,7 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -1151,7 +1187,7 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -1159,7 +1195,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -1167,7 +1203,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>48</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -1175,7 +1211,7 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -1183,7 +1219,7 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>2</v>
+        <v>19</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -1191,7 +1227,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>28</v>
+        <v>60</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -1199,7 +1235,7 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -1207,7 +1243,7 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -1215,7 +1251,7 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -1223,7 +1259,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -1231,7 +1267,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -1239,7 +1275,7 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -1263,7 +1299,7 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>31</v>
+        <v>11</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -1271,7 +1307,7 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>42</v>
+        <v>4</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -1279,7 +1315,7 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -1287,7 +1323,7 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -1295,7 +1331,7 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>10</v>
+        <v>36</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -1303,7 +1339,7 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>34</v>
+        <v>46</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -1311,7 +1347,7 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>41</v>
+        <v>3</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -1319,7 +1355,7 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -1327,7 +1363,7 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -1335,7 +1371,7 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>6</v>
+        <v>42</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -1343,7 +1379,7 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>11</v>
+        <v>48</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -1351,7 +1387,7 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -1359,7 +1395,7 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -1367,7 +1403,7 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -1375,7 +1411,7 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>42</v>
+        <v>14</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -1383,7 +1419,7 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -1391,7 +1427,7 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -1399,7 +1435,7 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -1407,7 +1443,7 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>12</v>
+        <v>52</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -1415,7 +1451,7 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -1423,7 +1459,7 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>55</v>
+        <v>30</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -1431,7 +1467,7 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -1439,7 +1475,7 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>1</v>
+        <v>23</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -1447,7 +1483,7 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
@@ -1455,7 +1491,7 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>2</v>
+        <v>69</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -1463,7 +1499,7 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -1479,7 +1515,7 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
@@ -1487,7 +1523,7 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
@@ -1495,7 +1531,7 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -1503,7 +1539,7 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -1519,7 +1555,7 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
@@ -1527,7 +1563,7 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
@@ -1535,7 +1571,7 @@
         <v>101</v>
       </c>
       <c r="B102">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
@@ -1559,7 +1595,7 @@
         <v>104</v>
       </c>
       <c r="B105">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
@@ -1575,7 +1611,7 @@
         <v>106</v>
       </c>
       <c r="B107">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
@@ -1583,7 +1619,103 @@
         <v>107</v>
       </c>
       <c r="B108">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B109">
         <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B110">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B111">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B112">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B113">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B114">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B115">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B116">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B117">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B118">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B120">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
